--- a/DAIL/database/DAIL/NSIS installer helper2.xlsx
+++ b/DAIL/database/DAIL/NSIS installer helper2.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DAIL" sheetId="1" r:id="rId1"/>
+    <sheet name="CRUCIBLE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="42">
   <si>
     <t xml:space="preserve">  SetOverwrite on</t>
   </si>
@@ -101,6 +102,45 @@
   </si>
   <si>
     <t>wanez-runes.arc</t>
+  </si>
+  <si>
+    <t>Conversations.arc</t>
+  </si>
+  <si>
+    <t>Effects.arc</t>
+  </si>
+  <si>
+    <t>FX.arc</t>
+  </si>
+  <si>
+    <t>Items.arc</t>
+  </si>
+  <si>
+    <t>Level Art.arc</t>
+  </si>
+  <si>
+    <t>Meshes.arc</t>
+  </si>
+  <si>
+    <t>Scripts.arc</t>
+  </si>
+  <si>
+    <t>Soundeffects.arc</t>
+  </si>
+  <si>
+    <t>Sounds.arc</t>
+  </si>
+  <si>
+    <t>Textures.arc</t>
+  </si>
+  <si>
+    <t>UI.arc</t>
+  </si>
+  <si>
+    <t>XPack.arc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SetOutPath "$INSTDIR\mods\survivalmode\resources"</t>
   </si>
 </sst>
 </file>
@@ -484,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A198" sqref="A181:A198"/>
     </sheetView>
   </sheetViews>
@@ -2269,7 +2309,7 @@
         <v>23</v>
       </c>
       <c r="B133">
-        <f t="shared" ref="B133:B196" si="43">B130+1</f>
+        <f t="shared" ref="B133:B183" si="43">B130+1</f>
         <v>13</v>
       </c>
     </row>
@@ -2857,7 +2897,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B199">
-        <f t="shared" ref="B197:B237" si="47">B196+1</f>
+        <f t="shared" ref="B199:B237" si="47">B196+1</f>
         <v>23</v>
       </c>
     </row>
@@ -3088,6 +3128,1561 @@
         <f t="shared" si="47"/>
         <v>35</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection sqref="A1:A63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>D1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B3,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B3,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Conversations.arc ".\survivalmode\resources\Conversations.arc"</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">D2+1</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <f>B1+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B68" si="1">B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B6,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B6,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Creatures.arc ".\survivalmode\resources\Creatures.arc"</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B9,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B9,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Custom.arc ".\survivalmode\resources\Custom.arc"</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B12,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B12,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Effects.arc ".\survivalmode\resources\Effects.arc"</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B15,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B15,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=FX.arc ".\survivalmode\resources\FX.arc"</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B18,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B18,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=ingameui.arc ".\survivalmode\resources\ingameui.arc"</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B21,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B21,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Items.arc ".\survivalmode\resources\Items.arc"</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B24,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B24,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Level Art.arc ".\survivalmode\resources\Level Art.arc"</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B27,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B27,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Maps.arc ".\survivalmode\resources\Maps.arc"</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B30,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B30,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Meshes.arc ".\survivalmode\resources\Meshes.arc"</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B33,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B33,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Quests.arc ".\survivalmode\resources\Quests.arc"</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B36,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B36,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Scripts.arc ".\survivalmode\resources\Scripts.arc"</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B39,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B39,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Sound.arc ".\survivalmode\resources\Sound.arc"</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B42,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B42,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Soundeffects.arc ".\survivalmode\resources\Soundeffects.arc"</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B45,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B45,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Sounds.arc ".\survivalmode\resources\Sounds.arc"</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B48,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B48,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Textures.arc ".\survivalmode\resources\Textures.arc"</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B51,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B51,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Text_EN.arc ".\survivalmode\resources\Text_EN.arc"</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B54,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B54,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=UI.arc ".\survivalmode\resources\UI.arc"</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B57,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B57,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=wanez-dga.arc ".\survivalmode\resources\wanez-dga.arc"</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B60,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B60,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=wanez.arc ".\survivalmode\resources\wanez.arc"</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B63,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B63,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=XPack.arc ".\survivalmode\resources\XPack.arc"</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="D67">
+        <f t="shared" ref="D67:D119" si="2">D66+1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="D103">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="D104">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="D105">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="D106">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="D109">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="D111">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="D112">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="D113">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="D114">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="D115">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="D116">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="D117">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="D118">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="D119">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
